--- a/metrics/R2/average time/Neuropatía.xlsx
+++ b/metrics/R2/average time/Neuropatía.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8068444317050372</v>
+        <v>0.7805700687689699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8068444317050372</v>
+        <v>0.7805700687689699</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8068444317050372</v>
+        <v>0.7805700687689699</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9941590345893779</v>
+        <v>0.9939909774523566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942805891037884</v>
+        <v>0.9939081649574478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9944643344652009</v>
+        <v>0.9942571752569688</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9959956853149261</v>
+        <v>0.9958896462992364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9959154931718285</v>
+        <v>0.9957826782198929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9959979378576195</v>
+        <v>0.9957783808895934</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.978518672158774</v>
+        <v>0.9750174561165034</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9759979523541817</v>
+        <v>0.9738138522956986</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9696396055165653</v>
+        <v>0.9659149561606181</v>
       </c>
     </row>
   </sheetData>
